--- a/data/ListProductTest.xlsx
+++ b/data/ListProductTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\PhanTan_NhomDyLan_DHKTPM18A_QuanLyHieuThuocTay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13275981-2704-42DA-9D8C-089CAE7993E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36698B0-BBB6-45B4-97CB-4B8E0329E389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79161267-99B2-4805-9FCF-DEFACE54B3EF}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{79161267-99B2-4805-9FCF-DEFACE54B3EF}"/>
   </bookViews>
   <sheets>
     <sheet name="DANHMUCTHUOC" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -565,31 +563,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -597,14 +595,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1038,11 +1036,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE363278-D32E-4AD8-8802-1B8E0AA81EC6}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -1066,7 +1064,7 @@
     <col min="21" max="21" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>109</v>
       </c>
@@ -1131,7 +1129,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickTop="1">
+    <row r="2" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1145,7 +1143,8 @@
         <v>293</v>
       </c>
       <c r="E2">
-        <v>401011</v>
+        <f ca="1">RANDBETWEEN(1, 1000)*1000</f>
+        <v>771000</v>
       </c>
       <c r="F2">
         <v>0.05</v>
@@ -1187,7 +1186,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1201,7 +1200,8 @@
         <v>234</v>
       </c>
       <c r="E3">
-        <v>40232</v>
+        <f t="shared" ref="E3:E22" ca="1" si="0">RANDBETWEEN(1, 1000)*1000</f>
+        <v>829000</v>
       </c>
       <c r="F3">
         <v>0.05</v>
@@ -1243,7 +1243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1257,7 +1257,8 @@
         <v>234</v>
       </c>
       <c r="E4">
-        <v>40386</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>74000</v>
       </c>
       <c r="F4">
         <v>0.05</v>
@@ -1299,7 +1300,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1313,7 +1314,8 @@
         <v>223</v>
       </c>
       <c r="E5">
-        <v>40678</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>291000</v>
       </c>
       <c r="F5">
         <v>0.05</v>
@@ -1355,7 +1357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1369,7 +1371,8 @@
         <v>342</v>
       </c>
       <c r="E6">
-        <v>40277</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>606000</v>
       </c>
       <c r="F6">
         <v>0.05</v>
@@ -1411,7 +1414,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1425,7 +1428,8 @@
         <v>334</v>
       </c>
       <c r="E7">
-        <v>40795</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>491000</v>
       </c>
       <c r="F7">
         <v>0.05</v>
@@ -1467,7 +1471,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1481,7 +1485,8 @@
         <v>223</v>
       </c>
       <c r="E8">
-        <v>4083</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>896000</v>
       </c>
       <c r="F8">
         <v>0.05</v>
@@ -1523,7 +1528,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1537,7 +1542,8 @@
         <v>443</v>
       </c>
       <c r="E9">
-        <v>4083</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>829000</v>
       </c>
       <c r="F9">
         <v>0.05</v>
@@ -1579,7 +1585,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1593,7 +1599,8 @@
         <v>223</v>
       </c>
       <c r="E10">
-        <v>40371</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>433000</v>
       </c>
       <c r="F10">
         <v>0.05</v>
@@ -1635,7 +1642,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1649,7 +1656,8 @@
         <v>293</v>
       </c>
       <c r="E11">
-        <v>40371</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>820000</v>
       </c>
       <c r="F11">
         <v>0.05</v>
@@ -1691,7 +1699,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1705,7 +1713,8 @@
         <v>234</v>
       </c>
       <c r="E12">
-        <v>40574</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>319000</v>
       </c>
       <c r="F12">
         <v>0.05</v>
@@ -1747,7 +1756,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1761,7 +1770,8 @@
         <v>234</v>
       </c>
       <c r="E13">
-        <v>40295</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>126000</v>
       </c>
       <c r="F13">
         <v>0.05</v>
@@ -1803,7 +1813,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1817,7 +1827,8 @@
         <v>223</v>
       </c>
       <c r="E14">
-        <v>40293</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>598000</v>
       </c>
       <c r="F14">
         <v>0.05</v>
@@ -1859,7 +1870,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1873,7 +1884,8 @@
         <v>342</v>
       </c>
       <c r="E15">
-        <v>40347</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>666000</v>
       </c>
       <c r="F15">
         <v>0.05</v>
@@ -1915,7 +1927,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1929,7 +1941,8 @@
         <v>334</v>
       </c>
       <c r="E16">
-        <v>40532</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54000</v>
       </c>
       <c r="F16">
         <v>0.05</v>
@@ -1971,7 +1984,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1985,7 +1998,8 @@
         <v>223</v>
       </c>
       <c r="E17">
-        <v>40216</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>253000</v>
       </c>
       <c r="F17">
         <v>0.05</v>
@@ -2027,7 +2041,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2041,7 +2055,8 @@
         <v>443</v>
       </c>
       <c r="E18">
-        <v>40381</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>528000</v>
       </c>
       <c r="F18">
         <v>0.05</v>
@@ -2083,7 +2098,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2097,7 +2112,8 @@
         <v>223</v>
       </c>
       <c r="E19">
-        <v>40572</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>430000</v>
       </c>
       <c r="F19">
         <v>0.05</v>
@@ -2139,7 +2155,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2153,7 +2169,8 @@
         <v>223</v>
       </c>
       <c r="E20">
-        <v>40876</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>325000</v>
       </c>
       <c r="F20">
         <v>0.05</v>
@@ -2195,7 +2212,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2209,7 +2226,8 @@
         <v>150</v>
       </c>
       <c r="E21">
-        <v>333000</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>140000</v>
       </c>
       <c r="F21">
         <v>0.1</v>
@@ -2248,7 +2266,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2262,7 +2280,8 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>100000</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>74000</v>
       </c>
       <c r="F22">
         <v>0.05</v>
@@ -2313,14 +2332,14 @@
       <selection activeCell="D14" sqref="B2:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2353,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1">
+    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2348,7 +2367,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2362,7 +2381,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2376,7 +2395,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2390,7 +2409,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2404,7 +2423,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2418,7 +2437,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2432,7 +2451,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2446,7 +2465,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2460,7 +2479,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2474,7 +2493,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2488,7 +2507,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2502,7 +2521,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
